--- a/Turma Home Jan2018/2° Sabado/Aula 4 PROCV/Procv 1 Tabela de Preço Idiomas.xlsx
+++ b/Turma Home Jan2018/2° Sabado/Aula 4 PROCV/Procv 1 Tabela de Preço Idiomas.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C73D2C-097E-417F-B9D2-1FDAE8423AE4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -474,7 +483,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <v>195.77</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
